--- a/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/用户导入模版.xlsx
+++ b/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/用户导入模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="23040" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">填写须知：
 </t>
     </r>
@@ -42,7 +49,7 @@
       </rPr>
       <t>1. 请勿修改表格结构；
 2. 标红字段为必填项，黑色字段为选填项；
-3. 单位：必填，如果单位部门岗位都有数据，则系统会验证从属关系，不属于单位的部门或者不属于部门的岗位将无法导入；
+3. 单位：必填，如果单位部门都有数据，则系统会验证从属关系，不属于单位的部门将无法导入；
 4. 账号：必填，用户的唯一标识，可以由字母、数字、‘_-’符号组成，创建成功后账号无法修改；
 5. 密码：必填，密码规则需要符合后台用户密码设置；</t>
     </r>
@@ -1086,8 +1093,7 @@
   <cols>
     <col min="1" max="1" width="13.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="16.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="25.7878787878788" customWidth="1"/>
+    <col min="3" max="4" width="15.5454545454545" customWidth="1"/>
     <col min="5" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="19.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="26.3333333333333" customWidth="1"/>
@@ -1099,7 +1105,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1121,7 +1127,7 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
